--- a/biology/Zoologie/Corvida/Corvida.xlsx
+++ b/biology/Zoologie/Corvida/Corvida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corvida ont été l'un des deux infra-ordres contenus dans le sous-ordre des Passeri, tel que proposé dans la classification de Sibley-Ahlquist, le second étant celui des Passerida.
 Des recherches plus récentes suggèrent qu'il ne s'agit pas d'un clade mais d'un grade évolutif. Aussi, cet infraordre est abandonné dans les classifications modernes et a été remplacé par un certain nombre de super-familles qui sont considérées comme plus basales parmi les Passeri.
-Il semble que l'élevage coopératif - présent chez la plupart des membres des familles de Maluridae, Meliphagidae, Artamidae et Corvidae, entre autres - est un apomorphie commune de ce groupe[1]. Mais comme en témoigne la nouvelle phylogénie, ce caractère est plutôt le résultat d'une évolution parallèle, peut-être parce qu'au début des Passeri ont dû affronter de nombreux oiseaux au comportement écologiquement similaire.
+Il semble que l'élevage coopératif - présent chez la plupart des membres des familles de Maluridae, Meliphagidae, Artamidae et Corvidae, entre autres - est un apomorphie commune de ce groupe. Mais comme en témoigne la nouvelle phylogénie, ce caractère est plutôt le résultat d'une évolution parallèle, peut-être parce qu'au début des Passeri ont dû affronter de nombreux oiseaux au comportement écologiquement similaire.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Classification des familles dans les Corvida</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau répertorie, par ordre taxonomique, les familles placées dans "Corvida" par la taxinomie de Sibley-Ahlquist dans la colonne de gauche. La colonne de droite contient les détails de leur classification dans la systématique moderne.
 Les Corvoidea et les Meliphagoidea sont placés parmi les Passeri primitifs. Ils forment, cependant, des groupes assez grands pour avoir leur propres super-familles.
